--- a/TrialData.xlsx
+++ b/TrialData.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usshajoe\Desktop\MachineLearning\CarND_Project2_Traffic_Signs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="75" windowWidth="16215" windowHeight="5910"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="48">
   <si>
     <t>Trial #</t>
   </si>
@@ -76,13 +81,97 @@
   </si>
   <si>
     <t>Test Accuracy</t>
+  </si>
+  <si>
+    <t>5,5,3,9</t>
+  </si>
+  <si>
+    <t>3,3,9,18</t>
+  </si>
+  <si>
+    <t>Data Augmentation</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Conv3</t>
+  </si>
+  <si>
+    <t>3,3,3,9</t>
+  </si>
+  <si>
+    <t>Weight Initialization</t>
+  </si>
+  <si>
+    <t>Bias Initialization</t>
+  </si>
+  <si>
+    <t>Truncated Normal</t>
+  </si>
+  <si>
+    <t>Zeros</t>
+  </si>
+  <si>
+    <t>Xavier</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>200,84</t>
+  </si>
+  <si>
+    <t>Translation, Rotation, Color</t>
+  </si>
+  <si>
+    <t>3,3,18,36</t>
+  </si>
+  <si>
+    <t>250,84</t>
+  </si>
+  <si>
+    <t>Generator, Balancing Data, Translation, Rotation, Color</t>
+  </si>
+  <si>
+    <t>400,84</t>
+  </si>
+  <si>
+    <t>Learning Rate</t>
+  </si>
+  <si>
+    <t>3,3,3,8</t>
+  </si>
+  <si>
+    <t>3,3,8,16</t>
+  </si>
+  <si>
+    <t>3,3,16,32</t>
+  </si>
+  <si>
+    <t>Generator, Balancing Data, Translation, Rotation, Color (Resized all Data)</t>
+  </si>
+  <si>
+    <t>Xavier Uniform</t>
+  </si>
+  <si>
+    <t>Xavier Normal</t>
+  </si>
+  <si>
+    <t>3,3,3,12</t>
+  </si>
+  <si>
+    <t>3,3,12,24</t>
+  </si>
+  <si>
+    <t>3,3,24,48</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +209,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -166,7 +263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,9 +295,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,6 +330,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -407,16 +506,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="U2" sqref="B2:U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,28 +541,46 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
+      <c r="S1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -488,29 +605,41 @@
       <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1">
+      <c r="K2" s="1">
         <v>400120</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="L2">
+      <c r="N2">
+        <v>1E-3</v>
+      </c>
+      <c r="O2">
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <v>512</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
         <v>25</v>
       </c>
-      <c r="O2" t="s">
-        <v>15</v>
+      <c r="R2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -535,26 +664,717 @@
       <c r="H3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="1">
+      <c r="K3" s="1">
         <v>400120</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>9</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>11</v>
       </c>
-      <c r="L3">
+      <c r="N3">
+        <v>1E-3</v>
+      </c>
+      <c r="O3">
         <v>0.7</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>512</v>
       </c>
-      <c r="N3">
+      <c r="Q3">
         <v>30</v>
       </c>
-      <c r="O3" t="s">
-        <v>15</v>
+      <c r="R3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>57.6</v>
+      </c>
+      <c r="C4">
+        <v>54</v>
+      </c>
+      <c r="D4">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="1">
+        <v>450120</v>
+      </c>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4">
+        <v>1E-3</v>
+      </c>
+      <c r="O4">
+        <v>0.7</v>
+      </c>
+      <c r="P4">
+        <v>1024</v>
+      </c>
+      <c r="Q4">
+        <v>30</v>
+      </c>
+      <c r="R4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1">
+        <v>882200</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5">
+        <v>1E-3</v>
+      </c>
+      <c r="O5">
+        <v>0.7</v>
+      </c>
+      <c r="P5">
+        <v>1024</v>
+      </c>
+      <c r="Q5">
+        <v>30</v>
+      </c>
+      <c r="R5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>70.2</v>
+      </c>
+      <c r="C6">
+        <v>69.8</v>
+      </c>
+      <c r="D6">
+        <v>88.8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1">
+        <v>882200</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6">
+        <v>1E-3</v>
+      </c>
+      <c r="O6">
+        <v>0.7</v>
+      </c>
+      <c r="P6">
+        <v>1024</v>
+      </c>
+      <c r="Q6">
+        <v>30</v>
+      </c>
+      <c r="R6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" t="s">
+        <v>28</v>
+      </c>
+      <c r="V6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="1">
+        <v>576250</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7">
+        <v>1E-3</v>
+      </c>
+      <c r="O7">
+        <v>0.6</v>
+      </c>
+      <c r="P7">
+        <v>1024</v>
+      </c>
+      <c r="Q7">
+        <v>30</v>
+      </c>
+      <c r="R7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" t="s">
+        <v>28</v>
+      </c>
+      <c r="V7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1152400</v>
+      </c>
+      <c r="L8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8">
+        <v>1E-3</v>
+      </c>
+      <c r="O8">
+        <v>0.6</v>
+      </c>
+      <c r="P8">
+        <v>1024</v>
+      </c>
+      <c r="Q8">
+        <v>30</v>
+      </c>
+      <c r="R8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8" t="s">
+        <v>15</v>
+      </c>
+      <c r="T8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>81.8</v>
+      </c>
+      <c r="C9">
+        <v>81.2</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2048400</v>
+      </c>
+      <c r="L9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9">
+        <v>1E-3</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1024</v>
+      </c>
+      <c r="Q9">
+        <v>30</v>
+      </c>
+      <c r="R9" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" t="s">
+        <v>23</v>
+      </c>
+      <c r="U9" t="s">
+        <v>28</v>
+      </c>
+      <c r="V9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2048400</v>
+      </c>
+      <c r="L10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10">
+        <v>1E-3</v>
+      </c>
+      <c r="O10">
+        <v>0.6</v>
+      </c>
+      <c r="P10">
+        <v>1024</v>
+      </c>
+      <c r="Q10">
+        <v>30</v>
+      </c>
+      <c r="R10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10" t="s">
+        <v>23</v>
+      </c>
+      <c r="U10" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2048400</v>
+      </c>
+      <c r="L11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11">
+        <v>1E-3</v>
+      </c>
+      <c r="O11">
+        <v>0.7</v>
+      </c>
+      <c r="P11">
+        <v>1024</v>
+      </c>
+      <c r="Q11">
+        <v>30</v>
+      </c>
+      <c r="R11" t="s">
+        <v>15</v>
+      </c>
+      <c r="S11" t="s">
+        <v>15</v>
+      </c>
+      <c r="T11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>75.2</v>
+      </c>
+      <c r="C12">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="D12">
+        <v>86</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2048400</v>
+      </c>
+      <c r="L12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12">
+        <v>1E-3</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>512</v>
+      </c>
+      <c r="Q12">
+        <v>50</v>
+      </c>
+      <c r="R12" t="s">
+        <v>15</v>
+      </c>
+      <c r="S12" t="s">
+        <v>15</v>
+      </c>
+      <c r="T12" t="s">
+        <v>36</v>
+      </c>
+      <c r="U12" t="s">
+        <v>28</v>
+      </c>
+      <c r="V12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="C13">
+        <v>80.5</v>
+      </c>
+      <c r="D13">
+        <v>89.6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2048400</v>
+      </c>
+      <c r="L13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13">
+        <v>1E-3</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>512</v>
+      </c>
+      <c r="Q13">
+        <v>40</v>
+      </c>
+      <c r="R13" t="s">
+        <v>15</v>
+      </c>
+      <c r="S13" t="s">
+        <v>15</v>
+      </c>
+      <c r="U13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="1">
+        <v>768400</v>
+      </c>
+      <c r="L14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14">
+        <v>1E-3</v>
+      </c>
+      <c r="P14">
+        <v>512</v>
+      </c>
+      <c r="Q14">
+        <v>40</v>
+      </c>
+      <c r="R14" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" t="s">
+        <v>15</v>
+      </c>
+      <c r="U14" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -563,24 +1383,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TrialData.xlsx
+++ b/TrialData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="49">
   <si>
     <t>Trial #</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>3,3,24,48</t>
+  </si>
+  <si>
+    <t>768,43</t>
   </si>
 </sst>
 </file>
@@ -507,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="B2:U2"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,30 +1353,80 @@
         <v>4</v>
       </c>
       <c r="K14" s="1">
-        <v>768400</v>
-      </c>
-      <c r="L14" t="s">
-        <v>37</v>
+        <v>768768</v>
       </c>
       <c r="M14" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="N14">
         <v>1E-3</v>
       </c>
+      <c r="O14">
+        <v>0.8</v>
+      </c>
       <c r="P14">
         <v>512</v>
       </c>
       <c r="Q14">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="R14" t="s">
         <v>15</v>
       </c>
       <c r="S14" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="U14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="1">
+        <v>768768</v>
+      </c>
+      <c r="M15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N15">
+        <v>1E-3</v>
+      </c>
+      <c r="O15">
+        <v>0.8</v>
+      </c>
+      <c r="P15">
+        <v>512</v>
+      </c>
+      <c r="Q15">
+        <v>100</v>
+      </c>
+      <c r="R15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" t="s">
+        <v>15</v>
+      </c>
+      <c r="U15" t="s">
         <v>44</v>
       </c>
     </row>

--- a/TrialData.xlsx
+++ b/TrialData.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usshajoe\Desktop\MachineLearning\CarND_Project2_Traffic_Signs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="75" windowWidth="16215" windowHeight="5910"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="48">
   <si>
     <t>Trial #</t>
   </si>
@@ -153,9 +148,6 @@
   </si>
   <si>
     <t>Xavier Uniform</t>
-  </si>
-  <si>
-    <t>Xavier Normal</t>
   </si>
   <si>
     <t>3,3,3,12</t>
@@ -173,8 +165,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,7 +258,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,10 +290,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,7 +324,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -509,16 +499,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -583,7 +573,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>1</v>
       </c>
@@ -642,7 +632,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>2</v>
       </c>
@@ -701,7 +691,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>3</v>
       </c>
@@ -763,7 +753,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>4</v>
       </c>
@@ -825,7 +815,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>5</v>
       </c>
@@ -887,7 +877,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>6</v>
       </c>
@@ -955,7 +945,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1014,7 +1004,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1076,7 +1066,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1138,7 +1128,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1203,7 +1193,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1268,7 +1258,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1330,24 +1320,33 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>91.2</v>
+      </c>
+      <c r="C14">
+        <v>91.3</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
       <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
         <v>45</v>
       </c>
-      <c r="F14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" t="s">
         <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" t="s">
-        <v>47</v>
       </c>
       <c r="J14" t="s">
         <v>4</v>
@@ -1356,48 +1355,54 @@
         <v>768768</v>
       </c>
       <c r="M14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1E-3</v>
       </c>
       <c r="O14">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>512</v>
       </c>
       <c r="Q14">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="R14" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="S14" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="T14" t="s">
+        <v>36</v>
       </c>
       <c r="U14" t="s">
+        <v>43</v>
+      </c>
+      <c r="V14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
         <v>45</v>
       </c>
-      <c r="F15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" t="s">
         <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" t="s">
-        <v>47</v>
       </c>
       <c r="J15" t="s">
         <v>4</v>
@@ -1406,28 +1411,34 @@
         <v>768768</v>
       </c>
       <c r="M15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1E-3</v>
       </c>
       <c r="O15">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>512</v>
       </c>
       <c r="Q15">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="R15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="S15" t="s">
         <v>15</v>
       </c>
+      <c r="T15" t="s">
+        <v>36</v>
+      </c>
       <c r="U15" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="V15" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1436,24 +1447,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TrialData.xlsx
+++ b/TrialData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="49">
   <si>
     <t>Trial #</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>768,43</t>
+  </si>
+  <si>
+    <t>~70</t>
   </si>
 </sst>
 </file>
@@ -175,12 +178,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -195,9 +204,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,7 +514,7 @@
   <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1386,58 +1397,68 @@
       </c>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="E15" t="s">
+      <c r="B15" s="2">
+        <v>93.2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>93.3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>99.8</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="H15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J15" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="1">
+      <c r="J15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3">
         <v>768768</v>
       </c>
-      <c r="M15" t="s">
+      <c r="L15" s="2"/>
+      <c r="M15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="2">
         <v>1E-3</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
+      <c r="O15" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="P15" s="2">
         <v>512</v>
       </c>
-      <c r="Q15">
-        <v>40</v>
-      </c>
-      <c r="R15" t="s">
+      <c r="Q15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S15" t="s">
-        <v>15</v>
-      </c>
-      <c r="T15" t="s">
+      <c r="S15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U15" t="s">
+      <c r="U15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="V15" t="s">
+      <c r="V15" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/TrialData.xlsx
+++ b/TrialData.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usshajoe\Desktop\MachineLearning\CarND_Project2_Traffic_Signs\CarND_Project2_Traffic_Signs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="75" windowWidth="16215" windowHeight="5910"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="54">
   <si>
     <t>Trial #</t>
   </si>
@@ -160,13 +165,31 @@
   </si>
   <si>
     <t>768,43</t>
+  </si>
+  <si>
+    <t>Generator, No Balancing, 50% augmentation</t>
+  </si>
+  <si>
+    <t>5,5,6,20</t>
+  </si>
+  <si>
+    <t>250,43</t>
+  </si>
+  <si>
+    <t>5,5,6,18</t>
+  </si>
+  <si>
+    <t>5,5,18,27</t>
+  </si>
+  <si>
+    <t>243,43</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,13 +197,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -195,9 +230,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -258,7 +295,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,9 +327,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -324,6 +362,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,16 +538,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +612,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -632,7 +671,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -691,7 +730,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -753,7 +792,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -815,7 +854,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -877,7 +916,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -945,7 +984,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1004,7 +1043,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1066,18 +1105,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
+      <c r="B10">
+        <v>74.2</v>
+      </c>
+      <c r="C10">
+        <v>76.8</v>
+      </c>
+      <c r="D10">
+        <v>84.4</v>
       </c>
       <c r="E10" t="s">
         <v>39</v>
@@ -1128,7 +1167,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1193,7 +1232,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1258,7 +1297,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1320,7 +1359,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1385,10 +1424,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>87.3</v>
+      </c>
+      <c r="C15">
+        <v>88.9</v>
+      </c>
+      <c r="D15">
+        <v>98.9</v>
+      </c>
       <c r="E15" t="s">
         <v>44</v>
       </c>
@@ -1417,7 +1465,7 @@
         <v>1E-3</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="P15">
         <v>512</v>
@@ -1438,33 +1486,224 @@
         <v>43</v>
       </c>
       <c r="V15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>92.4</v>
+      </c>
+      <c r="C16">
+        <v>92.3</v>
+      </c>
+      <c r="D16">
+        <v>99.9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="1">
+        <v>400120</v>
+      </c>
+      <c r="L16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16">
+        <v>1E-3</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>512</v>
+      </c>
+      <c r="Q16">
+        <v>40</v>
+      </c>
+      <c r="R16" t="s">
+        <v>23</v>
+      </c>
+      <c r="S16" t="s">
+        <v>15</v>
+      </c>
+      <c r="T16" t="s">
+        <v>48</v>
+      </c>
+      <c r="U16" t="s">
+        <v>43</v>
+      </c>
+      <c r="V16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>94</v>
+      </c>
+      <c r="C17">
+        <v>94.5</v>
+      </c>
+      <c r="D17">
+        <v>99.8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="1">
+        <v>500500</v>
+      </c>
+      <c r="L17" s="1">
+        <v>500250</v>
+      </c>
+      <c r="M17" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17">
+        <v>1E-3</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>512</v>
+      </c>
+      <c r="Q17">
+        <v>40</v>
+      </c>
+      <c r="R17" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" t="s">
+        <v>15</v>
+      </c>
+      <c r="T17" t="s">
+        <v>48</v>
+      </c>
+      <c r="U17" t="s">
+        <v>43</v>
+      </c>
+      <c r="V17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>94.6</v>
+      </c>
+      <c r="C18" s="2">
+        <v>95.6</v>
+      </c>
+      <c r="D18" s="2">
+        <v>99.6</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
+        <v>243243</v>
+      </c>
+      <c r="L18" s="3">
+        <v>243243</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>512</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>40</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V18" s="2" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TrialData.xlsx
+++ b/TrialData.xlsx
@@ -176,13 +176,13 @@
     <t>Learn Rate</t>
   </si>
   <si>
-    <t>Generator, No Balancing, 25% augmentation</t>
-  </si>
-  <si>
     <t>Generator, Balancing Data</t>
   </si>
   <si>
     <t>Valid_Acc</t>
+  </si>
+  <si>
+    <t>Generator, No Balancing, 25% no augmentation</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +574,7 @@
     <col min="16" max="16" width="10" customWidth="1"/>
     <col min="17" max="17" width="8" customWidth="1"/>
     <col min="18" max="18" width="13.140625" customWidth="1"/>
-    <col min="19" max="19" width="40.140625" customWidth="1"/>
+    <col min="19" max="19" width="42.140625" customWidth="1"/>
     <col min="20" max="20" width="18.5703125" customWidth="1"/>
     <col min="21" max="21" width="17.140625" customWidth="1"/>
   </cols>
@@ -587,7 +587,7 @@
         <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>49</v>
@@ -1005,7 +1005,7 @@
         <v>15</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>25</v>
@@ -1066,7 +1066,7 @@
         <v>15</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>25</v>
@@ -1253,7 +1253,7 @@
         <v>15</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>25</v>
@@ -1316,7 +1316,7 @@
         <v>15</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>25</v>
@@ -1379,7 +1379,7 @@
         <v>15</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>37</v>
@@ -1442,7 +1442,7 @@
         <v>20</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>37</v>
@@ -1505,7 +1505,7 @@
         <v>20</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>37</v>
@@ -1627,7 +1627,7 @@
         <v>20</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>37</v>
@@ -1690,7 +1690,7 @@
         <v>20</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>37</v>
